--- a/iei_processed_members.xlsx
+++ b/iei_processed_members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\IEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E830326-9342-43B9-9ABF-47791C21526C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F0906-8619-462E-B3E6-1DD420D531DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>membership_id</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>FE</t>
-  </si>
-  <si>
-    <t>7656064562</t>
-  </si>
-  <si>
-    <t>4562</t>
   </si>
   <si>
     <t>M-1423501</t>
@@ -736,7 +730,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>7656064562</v>
+        <v>8591294233</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -796,152 +790,152 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="G2">
+        <v>8591294233</v>
+      </c>
+      <c r="H2">
+        <v>4233</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3">
         <v>7354278961</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>7281069046</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5">
         <v>9494438320</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="D6">
         <v>8862544799</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="D7">
         <v>8012652909</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
       </c>
       <c r="D8">
         <v>8977086312</v>
@@ -953,99 +947,99 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
       </c>
       <c r="D9">
         <v>7388606223</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
       </c>
       <c r="D10">
         <v>8416133305</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
       </c>
       <c r="D11">
         <v>7618272786</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
       </c>
       <c r="D12">
         <v>8401895171</v>
@@ -1057,151 +1051,151 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
       </c>
       <c r="D13">
         <v>8700049692</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
       </c>
       <c r="D14">
         <v>9979682993</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
       </c>
       <c r="D15">
         <v>8751350519</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
       </c>
       <c r="D16">
         <v>9941761270</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
       </c>
       <c r="D17">
         <v>6493734491</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
       </c>
       <c r="D18">
         <v>8385600250</v>
@@ -1210,91 +1204,91 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
       </c>
       <c r="D19">
         <v>9884228158</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
         <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
       </c>
       <c r="D20">
         <v>9999736436</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
         <v>112</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
       </c>
       <c r="D21">
         <v>9026566902</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/iei_processed_members.xlsx
+++ b/iei_processed_members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\IEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F0906-8619-462E-B3E6-1DD420D531DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5BE61-987E-4B7D-BAC6-CEFC5687E088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,7 +730,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/iei_processed_members.xlsx
+++ b/iei_processed_members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\IEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5BE61-987E-4B7D-BAC6-CEFC5687E088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591C41B-2515-4C9F-B9BE-E8478C366BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>membership_id</t>
   </si>
@@ -76,12 +76,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>7354278961</t>
-  </si>
-  <si>
-    <t>8961</t>
-  </si>
-  <si>
     <t>AM1423502</t>
   </si>
   <si>
@@ -97,12 +91,6 @@
     <t>TE</t>
   </si>
   <si>
-    <t>7281069046</t>
-  </si>
-  <si>
-    <t>9046</t>
-  </si>
-  <si>
     <t>ST1423503</t>
   </si>
   <si>
@@ -118,12 +106,6 @@
     <t>BE</t>
   </si>
   <si>
-    <t>9494438320</t>
-  </si>
-  <si>
-    <t>8320</t>
-  </si>
-  <si>
     <t>T-1423504</t>
   </si>
   <si>
@@ -134,12 +116,6 @@
   </si>
   <si>
     <t>MECH</t>
-  </si>
-  <si>
-    <t>8862544799</t>
-  </si>
-  <si>
-    <t>4799</t>
   </si>
   <si>
     <t>F-1423505</t>
@@ -730,7 +706,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>7354278961</v>
+        <v>9356949919</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -816,126 +792,126 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+      <c r="G3">
+        <v>9356949919</v>
+      </c>
+      <c r="H3">
+        <v>9919</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>7977603065</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>7281069046</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
+      <c r="G4">
+        <v>7977603065</v>
+      </c>
+      <c r="H4">
+        <v>3065</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>8855987935</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>9494438320</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
+      <c r="G5">
+        <v>8855987935</v>
+      </c>
+      <c r="H5">
+        <v>7935</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>8862544799</v>
+        <v>9867100946</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
+      <c r="G6">
+        <v>9867100946</v>
+      </c>
+      <c r="H6">
+        <v>946</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>8012652909</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>8977086312</v>
@@ -947,21 +923,21 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>7388606223</v>
@@ -970,76 +946,76 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>8416133305</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>7618272786</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>8401895171</v>
@@ -1051,21 +1027,21 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>8700049692</v>
@@ -1077,125 +1053,125 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>9979682993</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>8751350519</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>9941761270</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>6493734491</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>8385600250</v>
@@ -1207,21 +1183,21 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>9884228158</v>
@@ -1230,65 +1206,65 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <v>9999736436</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D21">
         <v>9026566902</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/iei_processed_members.xlsx
+++ b/iei_processed_members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\IEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591C41B-2515-4C9F-B9BE-E8478C366BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C9169-1D4A-4CC5-81D6-52BAD8B16B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
   <si>
     <t>membership_id</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>6902</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -392,15 +395,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,9 +737,10 @@
     <col min="6" max="6" width="9.90625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,8 +765,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -772,8 +794,11 @@
       <c r="H2">
         <v>4233</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="3">
+        <v>35868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -798,8 +823,11 @@
       <c r="H3">
         <v>9919</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="3">
+        <v>37101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -824,8 +852,11 @@
       <c r="H4">
         <v>3065</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="3">
+        <v>35374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -850,8 +881,11 @@
       <c r="H5">
         <v>7935</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="3">
+        <v>36547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -876,8 +910,11 @@
       <c r="H6">
         <v>946</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="3">
+        <v>35691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -902,8 +939,11 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="3">
+        <v>37418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -928,8 +968,11 @@
       <c r="H8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="3">
+        <v>35063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -954,8 +997,11 @@
       <c r="H9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="3">
+        <v>36257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -980,8 +1026,11 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="3">
+        <v>37190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1006,8 +1055,11 @@
       <c r="H11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="3">
+        <v>35279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1032,8 +1084,11 @@
       <c r="H12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="3">
+        <v>36665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1058,8 +1113,11 @@
       <c r="H13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="3">
+        <v>35851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1084,8 +1142,11 @@
       <c r="H14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="3">
+        <v>35624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1110,8 +1171,11 @@
       <c r="H15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="3">
+        <v>37265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1136,8 +1200,11 @@
       <c r="H16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="3">
+        <v>34878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1162,8 +1229,11 @@
       <c r="H17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="3">
+        <v>36510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1188,8 +1258,11 @@
       <c r="H18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="3">
+        <v>36773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1214,8 +1287,11 @@
       <c r="H19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="3">
+        <v>35176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1240,8 +1316,11 @@
       <c r="H20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="3">
+        <v>36958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -1265,6 +1344,9 @@
       </c>
       <c r="H21" t="s">
         <v>106</v>
+      </c>
+      <c r="I21" s="3">
+        <v>36126</v>
       </c>
     </row>
   </sheetData>

--- a/iei_processed_members.xlsx
+++ b/iei_processed_members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\IEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C9169-1D4A-4CC5-81D6-52BAD8B16B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D9E84A-02AF-48E3-B196-A452EBF62B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,7 +795,7 @@
         <v>4233</v>
       </c>
       <c r="I2" s="3">
-        <v>35868</v>
+        <v>35805</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
